--- a/help/marketo-tutorial-implementing-new-instance/assets/adobe-marketo-engage-implementation-milestones-project-management-template.xlsx
+++ b/help/marketo-tutorial-implementing-new-instance/assets/adobe-marketo-engage-implementation-milestones-project-management-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amychiu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE67BCA-8464-8440-90CD-C7761AFBA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45239E31-B406-7E47-B8EA-851DF67D1189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38220" windowHeight="23960" xr2:uid="{A431511E-1DD1-2B41-9EB2-D84E18E145A6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{A431511E-1DD1-2B41-9EB2-D84E18E145A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Implementation Milestones" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>EXAMPLE: Install MunchkinID on the company website </t>
   </si>
   <si>
-    <t>EXAMPLE: Set up Domain Keys Identified Mail (DKIM) and CNAME for deliverability </t>
-  </si>
-  <si>
     <t>EXAMPLE: Create Marketo Engage users and roles </t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Web Development team </t>
   </si>
   <si>
-    <t>Support and guidance from the IT Team. </t>
-  </si>
-  <si>
     <t>Information from marketing teams on who needs access to Marketo Engage. </t>
   </si>
   <si>
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t>Marketing Operations team to QA, schedule, and send. </t>
+  </si>
+  <si>
+    <t>EXAMPLE: Set up Domain Keys Identified Mail (DKIM) and 2 separate CNAMEs for deliverability and email tracking links.</t>
+  </si>
+  <si>
+    <t>Support and setup from the IT Team. </t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -357,301 +357,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,28 +376,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,113 +389,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159EC701-1DDA-4042-AB7A-445F16F5BA92}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="184" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1189,89 +793,89 @@
     <col min="2" max="2" width="59.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5" style="43" customWidth="1"/>
+    <col min="6" max="6" width="48.5" style="14" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="58" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" thickBot="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:6" ht="29">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="28"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="28"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1283,50 +887,50 @@
       <c r="E7" s="5">
         <v>45547</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="F7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="5">
         <v>45550</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="5">
         <v>45553</v>
       </c>
-      <c r="F8" s="39" t="s">
-        <v>44</v>
+      <c r="F8" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="51"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="29">
-      <c r="A11" s="51"/>
-      <c r="B11" s="24" t="s">
-        <v>32</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1337,14 +941,14 @@
       <c r="E11" s="5">
         <v>45550</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>45</v>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29">
-      <c r="A12" s="51"/>
-      <c r="B12" s="24" t="s">
-        <v>33</v>
+      <c r="A12" s="17"/>
+      <c r="B12" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1355,14 +959,14 @@
       <c r="E12" s="5">
         <v>45550</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>46</v>
+      <c r="F12" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43">
-      <c r="A13" s="54"/>
-      <c r="B13" s="24" t="s">
-        <v>34</v>
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1373,58 +977,58 @@
       <c r="E13" s="5">
         <v>45550</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="46" t="s">
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45542</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45547</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17"/>
+      <c r="B18" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7">
-        <v>45542</v>
-      </c>
-      <c r="E14" s="7">
-        <v>45547</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="53"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="51"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="55"/>
-      <c r="B18" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1435,58 +1039,58 @@
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="46" t="s">
+      <c r="F18" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45591</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="29">
+      <c r="A23" s="17"/>
+      <c r="B23" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45591</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="53"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="51"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" ht="29">
-      <c r="A23" s="55"/>
-      <c r="B23" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1497,58 +1101,58 @@
       <c r="E23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" thickBot="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="29" t="s">
+      <c r="F23" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29">
+      <c r="A24" s="17"/>
+      <c r="B24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45615</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7">
-        <v>45615</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="51"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="51"/>
-      <c r="B28" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>17</v>
@@ -1559,57 +1163,57 @@
       <c r="E28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" thickBot="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="F28" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29">
+      <c r="A29" s="17"/>
+      <c r="B29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>45626</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="40" t="s">
-        <v>54</v>
+      <c r="F29" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="51"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="23"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="51"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="29">
-      <c r="A33" s="51"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1621,57 +1225,57 @@
       <c r="E33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" thickBot="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="10" t="s">
+      <c r="F33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="29">
+      <c r="A34" s="17"/>
+      <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>45633</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>56</v>
+      <c r="F34" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="53"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="51"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="28"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="43">
-      <c r="A38" s="51"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1683,57 +1287,57 @@
       <c r="E38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" thickBot="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="10" t="s">
+      <c r="F38" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="29">
+      <c r="A39" s="17"/>
+      <c r="B39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>45639</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="42" t="s">
-        <v>58</v>
+      <c r="F39" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="51"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="51"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="28"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="51"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1745,111 +1349,111 @@
       <c r="E43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" thickBot="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="F43" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="17"/>
+      <c r="B44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>45642</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="42" t="s">
-        <v>59</v>
+      <c r="F44" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1913,6 +1517,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AB93A25AFF156439850881F6A1EFB06" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="711c0aa484f22afeba0d38fa96483f3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xmlns:ns3="d449adc5-a023-4a4e-b2f3-92dafbd76c81" xmlns:ns4="beb3ccd9-9cf9-40a9-923c-79c44a00fd08" xmlns:ns5="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2ced39c2ab41a51ac713b216d2129f6" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
@@ -2212,35 +1825,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E3D7F04-1AF5-4C8D-93EF-14C570887107}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c"/>
     <ds:schemaRef ds:uri="d449adc5-a023-4a4e-b2f3-92dafbd76c81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="beb3ccd9-9cf9-40a9-923c-79c44a00fd08"/>
+    <ds:schemaRef ds:uri="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5155BF23-7CC0-4C23-861A-929DA83EF5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1285C50F-BD42-47C4-B118-DB4C5042B6A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2259,12 +1871,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5155BF23-7CC0-4C23-861A-929DA83EF5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>